--- a/data/MisInfoText/Analysis_output/social_media/MisInfoText_social_media_ngrams_headlines.xlsx
+++ b/data/MisInfoText/Analysis_output/social_media/MisInfoText_social_media_ngrams_headlines.xlsx
@@ -11,16 +11,17 @@
     <sheet name="2010" sheetId="2" r:id="rId2"/>
     <sheet name="2013" sheetId="3" r:id="rId3"/>
     <sheet name="2014" sheetId="4" r:id="rId4"/>
-    <sheet name="2016" sheetId="5" r:id="rId5"/>
-    <sheet name="2017" sheetId="6" r:id="rId6"/>
-    <sheet name="2018" sheetId="7" r:id="rId7"/>
+    <sheet name="2015" sheetId="5" r:id="rId5"/>
+    <sheet name="2016" sheetId="6" r:id="rId6"/>
+    <sheet name="2017" sheetId="7" r:id="rId7"/>
+    <sheet name="2018" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>n</t>
   </si>
@@ -620,6 +621,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1060,7 +1085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1"/>
   <sheetViews>

--- a/data/MisInfoText/Analysis_output/social_media/MisInfoText_social_media_ngrams_headlines.xlsx
+++ b/data/MisInfoText/Analysis_output/social_media/MisInfoText_social_media_ngrams_headlines.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>n</t>
   </si>
@@ -59,22 +59,16 @@
     <t>rover finds</t>
   </si>
   <si>
-    <t>of american</t>
-  </si>
-  <si>
-    <t>no evidence</t>
-  </si>
-  <si>
     <t>moon landings</t>
   </si>
   <si>
     <t>lunar rover</t>
   </si>
   <si>
-    <t>finds no</t>
-  </si>
-  <si>
-    <t>evidence of</t>
+    <t>finds evidence</t>
+  </si>
+  <si>
+    <t>evidence american</t>
   </si>
   <si>
     <t>chinese lunar</t>
@@ -83,22 +77,16 @@
     <t>american moon</t>
   </si>
   <si>
-    <t>rover finds no</t>
-  </si>
-  <si>
-    <t>of american moon</t>
-  </si>
-  <si>
-    <t>no evidence of</t>
+    <t>rover finds evidence</t>
   </si>
   <si>
     <t>lunar rover finds</t>
   </si>
   <si>
-    <t>finds no evidence</t>
-  </si>
-  <si>
-    <t>evidence of american</t>
+    <t>finds evidence american</t>
+  </si>
+  <si>
+    <t>evidence american moon</t>
   </si>
   <si>
     <t>chinese lunar rover</t>
@@ -107,43 +95,31 @@
     <t>american moon landings</t>
   </si>
   <si>
-    <t>rover finds no evidence</t>
-  </si>
-  <si>
-    <t>of american moon landings</t>
-  </si>
-  <si>
-    <t>no evidence of american</t>
-  </si>
-  <si>
-    <t>lunar rover finds no</t>
-  </si>
-  <si>
-    <t>finds no evidence of</t>
-  </si>
-  <si>
-    <t>evidence of american moon</t>
+    <t>rover finds evidence american</t>
+  </si>
+  <si>
+    <t>lunar rover finds evidence</t>
+  </si>
+  <si>
+    <t>finds evidence american moon</t>
+  </si>
+  <si>
+    <t>evidence american moon landings</t>
   </si>
   <si>
     <t>chinese lunar rover finds</t>
   </si>
   <si>
-    <t>rover finds no evidence of</t>
-  </si>
-  <si>
-    <t>no evidence of american moon</t>
-  </si>
-  <si>
-    <t>lunar rover finds no evidence</t>
-  </si>
-  <si>
-    <t>finds no evidence of american</t>
-  </si>
-  <si>
-    <t>evidence of american moon landings</t>
-  </si>
-  <si>
-    <t>chinese lunar rover finds no</t>
+    <t>rover finds evidence american moon</t>
+  </si>
+  <si>
+    <t>lunar rover finds evidence american</t>
+  </si>
+  <si>
+    <t>finds evidence american moon landings</t>
+  </si>
+  <si>
+    <t>chinese lunar rover finds evidence</t>
   </si>
 </sst>
 </file>
@@ -645,7 +621,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -829,7 +805,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -840,7 +816,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -895,7 +871,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -906,7 +882,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -917,7 +893,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -928,7 +904,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -950,7 +926,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -961,7 +937,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -972,7 +948,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -983,100 +959,12 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>5</v>
-      </c>
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>5</v>
-      </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>5</v>
-      </c>
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>5</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
-        <v>5</v>
-      </c>
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
-        <v>5</v>
-      </c>
-      <c r="B39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39">
         <v>1</v>
       </c>
     </row>
